--- a/similarities/split_global/harmonic_similarity_timestamps_247.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_247.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>jaah_1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G', 'A:7', 'D:min']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A:maj', 'B:7/F#', 'E:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:44.339000', '0:00:48.135000')]</t>
+          <t>('0:01:23.460000', '0:01:30.900000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:10.460000', '0:01:14.440000')]</t>
+          <t>('0:00:00.720000', '0:00:17.050000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=44.339']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=83.46</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=70.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_198</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['Cb', 'Gb:7', 'Cb']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A', 'D:min']]</t>
+          <t>['G#/C', 'D#:7/A#', 'G#/C']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:44.160000', '0:00:48.160000')]</t>
+          <t>('0:00:46.759000', '0:00:50.551000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:18.965464', '0:00:23.342426')]</t>
+          <t>('0:00:56.560000', '0:00:58.480000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=44.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=46.759</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=56.56</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>jaah_80</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>isophonics_216</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:maj', 'B:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['F', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D'], ['G', 'C', 'G']]</t>
+          <t>['A', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:57.700000', '0:01:05.360000'), ('0:00:54.180000', '0:01:01.460000')]</t>
+          <t>('0:00:01.640000', '0:00:05.110000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:03.524557', '0:01:10.536984'), ('0:00:06.774988', '0:00:12.022698')]</t>
+          <t>('0:01:04.871315', '0:01:12.777709')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=57.7', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=1.64</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=63.524557', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=6.774988']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=64.871315</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min/G'], ['D#/G', 'A#:7/F', 'D#/G']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min'], ['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:07.840000', '0:00:11.420000'), ('0:00:40.640000', '0:00:42.420000')]</t>
+          <t>('0:01:29.080000', '0:01:38.100000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:03.584000', '0:00:13.841000'), ('0:00:48.001000', '0:00:54.307000')]</t>
+          <t>('0:00:01.260000', '0:00:05.440000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=7.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=40.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=89.08</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=3.584', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=48.001']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=1.26</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E', 'A', 'D', 'A', 'D', 'A']]</t>
+          <t>['D#:maj', 'A#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'E/4', 'A', 'D/5', 'A', 'D/5', 'A']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:14.751043', '0:00:29.507324')]</t>
+          <t>('0:00:00.780000', '0:00:24.040000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:04.875000', '0:00:13.224000')]</t>
+          <t>('0:00:46.560000', '0:00:49.080000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=14.751043']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=0.78</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=4.875']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=46.56</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_63</t>
+          <t>schubert-winterreise_115</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Ab:7', 'Db']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Ab:7', 'Db']]</t>
+          <t>['C:7/E', 'F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:00.080000', '0:01:07.990000')]</t>
+          <t>('0:01:38.620000', '0:01:52.500000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:58.340000', '0:01:03.930000')]</t>
+          <t>('0:00:40.020000', '0:00:45.900000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-63#t=60.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=98.62</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=58.34']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=40.02</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>schubert-winterreise_50</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj', 'A:min'], ['A:min/E', 'E:7', 'A:min']]</t>
+          <t>['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:13.500000', '0:00:21.900000'), ('0:01:23.100000', '0:01:30.020000')]</t>
+          <t>('0:00:01.440000', '0:00:40.100000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:01.880000', '0:00:06.560000'), ('0:00:09.620000', '0:00:14.180000')]</t>
+          <t>('0:02:27.580000', '0:03:02.300000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=83.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=1.44</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=1.88', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=9.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=147.58</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_46</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'C:maj'], ['F:min', 'C:maj', 'F:min'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:12.660000', '0:00:17.100000'), ('0:00:00.780000', '0:00:05.260000'), ('0:01:45', '0:01:48.240000')]</t>
+          <t>('0:00:03.100000', '0:00:07.720000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:32.180000', '0:00:34.740000'), ('0:00:08.180000', '0:00:13.260000'), ('0:01:07.140000', '0:01:10.820000')]</t>
+          <t>('0:00:21.140000', '0:00:27.920000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=12.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=3.1</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=32.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=8.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=21.14</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['E', 'A:min', 'E', 'A:min', 'E', 'A:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:21.780000', '0:00:25.300000')]</t>
+          <t>('0:00:01.140000', '0:00:09.880000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:05.440000', '0:01:06.820000')]</t>
+          <t>('0:00:41.820000', '0:00:47.891000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=21.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=1.14</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=41.82</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>schubert-winterreise_69</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb'], ['Eb', 'Eb:7', 'Ab:7']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb'], ['Bb', 'Bb:7/3', 'Eb:7']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:14.660000'), ('0:00:17.450000', '0:00:28.190000')]</t>
+          <t>('0:00:42.360000', '0:00:50.360000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:19.130000', '0:00:20.830000'), ('0:00:10.510000', '0:00:11.830000')]</t>
+          <t>('0:00:09.780000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59', 'https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=17.45']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13', 'https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=10.51']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=9.78</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_152</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>isophonics_42</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7', 'D#'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['E:maj/B', 'A:min/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj'], ['D#:maj', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['G', 'C:min', 'Bb/3']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:41.760000', '0:00:45.160000'), ('0:01:04.680000', '0:01:10.020000')]</t>
+          <t>('0:00:26.580000', '0:00:29.440000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:45.240000', '0:02:00.100000'), ('0:01:55.700000', '0:02:10.980000')]</t>
+          <t>('0:01:48.913000', '0:01:54.379000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=41.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=64.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=26.58</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=105.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=115.7']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-42#t=108.913</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['E/5', 'B', 'E', 'B:7', 'E']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:18.240000', '0:00:29.100000')]</t>
+          <t>('0:00:59.327006', '0:01:05.956303')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:42.880000', '0:00:45.100000')]</t>
+          <t>('0:00:55.760000', '0:00:59.500000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=18.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=59.327006</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=42.88']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=55.76</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>isophonics_59</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_145</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['C/5', 'G', 'C']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>['G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:48', '0:00:52.200000')]</t>
+          <t>('0:00:27.476822', '0:00:35.056893')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:11.820000', '0:00:18.540000')]</t>
+          <t>('0:02:26.280000', '0:02:29.120000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=48.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=27.476822</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=11.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=146.28</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:11.160000', '0:00:16.300000'), ('0:00:00.660000', '0:00:02.680000')]</t>
+          <t>('0:00:52.740000', '0:01:00.860000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:00.980000', '0:00:06.140000'), ('0:02:11.200000', '0:02:16.340000')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=0.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=131.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>jaah_67</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['F:7', 'Bb', 'F:7']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['C:7', 'F', 'C:7']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:30.050000', '0:00:41.370000')]</t>
+          <t>('0:00:48.250000', '0:00:52.010000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:24.520000', '0:00:54.820000')]</t>
+          <t>('0:00:24.120000', '0:00:27')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.05']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=48.25</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=24.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=24.12</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
